--- a/biology/Zoologie/Cercosaura_manicata/Cercosaura_manicata.xlsx
+++ b/biology/Zoologie/Cercosaura_manicata/Cercosaura_manicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cercosaura manicata est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cercosaura manicata est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Bolivie ;
 au Pérou ;
 en Équateur ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (15 novembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (15 novembre 2012) :
 Cercosaura manicata bolivianus (Werner, 1899)
 Cercosaura manicata manicata O’Shaughnessy, 1881</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O’Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).
 Werner, 1899 : Beschreibung neuer Reptilien und Batrachier. Zoologischer Anzeiger, vol. 22, no 4, p. 479-484 (texte intégral).</t>
